--- a/server/branch/protected/models/excel/example/河长制基础信息模板.xlsx
+++ b/server/branch/protected/models/excel/example/河长制基础信息模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>河长制基础信息模板</t>
     <rPh sb="7" eb="8">
@@ -62,6 +62,26 @@
   <si>
     <t>河道警长</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>223sds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,7 +536,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -571,15 +591,33 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="14" customFormat="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="15">
+        <v>121</v>
+      </c>
+      <c r="B3" s="15">
+        <v>3234332</v>
+      </c>
+      <c r="C3" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5">
+        <v>23232</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>

--- a/server/branch/protected/models/excel/example/河长制基础信息模板.xlsx
+++ b/server/branch/protected/models/excel/example/河长制基础信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>河长制基础信息模板</t>
     <rPh sb="7" eb="8">
@@ -82,6 +82,10 @@
   <si>
     <t>vddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长联系方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -168,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,13 +195,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -251,7 +275,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,7 +563,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -545,15 +572,15 @@
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -561,7 +588,7 @@
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
     </row>
-    <row r="2" spans="1:16" s="14" customFormat="1">
+    <row r="2" spans="1:16" s="14" customFormat="1" ht="30">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -588,6 +615,9 @@
       </c>
       <c r="I2" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="14" customFormat="1">
@@ -618,7 +648,9 @@
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5">
+        <v>111</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="5"/>
@@ -1087,7 +1119,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
